--- a/static/excel/批量导入用户信息模板.xlsx
+++ b/static/excel/批量导入用户信息模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="12855" windowHeight="4395"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -44,10 +44,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>角色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>姓名（必填）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -59,8 +55,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -710,11 +706,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -788,6 +789,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -822,6 +824,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -997,14 +1000,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="12.125" style="2" customWidth="1"/>
@@ -1012,15 +1015,15 @@
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1040,9 +1043,6 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
